--- a/Data/Processed/Angiosperms/missing_powo_ipni/Aquifoliaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Aquifoliaceae.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biol. Centralbl. 13: 450. 1893 </t>
+          <t>Biol. Centralbl. 13: 450. 1893</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nova Acta Acad. Caes. Leop.-Carol. German. Nat. Cur. 78: 213. 1901 [1 Mar 1901] </t>
+          <t>Nova Acta Acad. Caes. Leop.-Carol. German. Nat. Cur. 78: 213. 1901 [1 Mar 1901]</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 17: 284. 1965 </t>
+          <t>Brittonia 17: 284. 1965</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nova Acta Acad. Caes. Leop.-Carol. German. Nat. Cur. 78: 382. 1901 [1 Mar 1901] </t>
+          <t>Nova Acta Acad. Caes. Leop.-Carol. German. Nat. Cur. 78: 382. 1901 [1 Mar 1901]</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
